--- a/com.automationpractice/src/test/resources/Test_Data.xlsx
+++ b/com.automationpractice/src/test/resources/Test_Data.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zohralamrani/IdeaProjects/Team1SeleniumBootcamp/com.automationpractice/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CDD68CC-8DC0-4A4C-ACF1-EE3818D939AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1195CD7A-84F3-DC49-A56B-312C72061CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="500" windowWidth="28040" windowHeight="17260" xr2:uid="{3831023F-6AA0-7B43-AF84-FCAFEB301D06}"/>
+    <workbookView xWindow="3320" yWindow="500" windowWidth="28040" windowHeight="17260" activeTab="2" xr2:uid="{3831023F-6AA0-7B43-AF84-FCAFEB301D06}"/>
   </bookViews>
   <sheets>
     <sheet name="ShoppingCart" sheetId="1" r:id="rId1"/>
+    <sheet name="addToCart" sheetId="2" r:id="rId2"/>
+    <sheet name="contactUs" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,10 +37,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">Your shopping cart is empty.
 </t>
+  </si>
+  <si>
+    <t>Product successfully added to your shopping cart</t>
+  </si>
+  <si>
+    <t>Your message has been successfully sent to our team.</t>
   </si>
 </sst>
 </file>
@@ -395,8 +403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AB2902-4A9F-AA47-A016-C1DC0937D5F5}">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -412,4 +420,44 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDA9D77-D891-9F4B-8450-D973AF293A0B}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DF8B6A-1B98-6848-A3C2-7C987B317BD9}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>